--- a/TestData/0_no_loc/data/Item.xlsx
+++ b/TestData/0_no_loc/data/Item.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\ExportExcel\TestData\0_no_loc\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fancyHub\ExportExcel\TestData\0_no_loc\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B57B25-D9DD-4627-87F9-A7E08B09A6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC7EC26-7A58-46F3-9B19-03E8812CDB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemData" sheetId="1" r:id="rId1"/>
     <sheet name="@EnumConfig_ItemType" sheetId="3" r:id="rId2"/>
     <sheet name="@EnumConfig_ItemSubType" sheetId="4" r:id="rId3"/>
+    <sheet name="@TupleConfig" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
   <si>
     <t>#remark</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -242,14 +243,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>int_bool</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>list_int_int64</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>4;;6</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -259,6 +252,56 @@
   </si>
   <si>
     <t>3|4;5|6;10|12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FieldName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FieldType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Val</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PairItemIntBool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PairItemIntInt64</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int64</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int_bool
+Tuple[PairItemIntBool]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list_int_int64
+Tuple[PairItemIntInt64]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -365,7 +408,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 5" xfId="1" xr:uid="{DDF3EF58-561A-463E-AD46-81209F5F99BA}"/>
   </cellStyles>
   <dxfs count="4">
@@ -413,7 +456,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -712,8 +755,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -724,7 +767,7 @@
     <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.75" customWidth="1"/>
     <col min="6" max="6" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.375" customWidth="1"/>
+    <col min="7" max="7" width="32.375" customWidth="1"/>
     <col min="8" max="8" width="23.625" customWidth="1"/>
     <col min="9" max="9" width="12.5" customWidth="1"/>
   </cols>
@@ -776,10 +819,10 @@
         <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>52</v>
@@ -822,13 +865,13 @@
         <v>6</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1114,4 +1157,80 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F65B931-9CCC-45DB-B97B-78A978A13D77}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="18.125" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestData/0_no_loc/data/Item.xlsx
+++ b/TestData/0_no_loc/data/Item.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fancyHub\ExportExcel\TestData\0_no_loc\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC7EC26-7A58-46F3-9B19-03E8812CDB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B172E8C-6DAA-4108-BBE8-A7ABE14164F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemData" sheetId="1" r:id="rId1"/>
     <sheet name="@EnumConfig_ItemType" sheetId="3" r:id="rId2"/>
     <sheet name="@EnumConfig_ItemSubType" sheetId="4" r:id="rId3"/>
-    <sheet name="@TupleConfig" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
   <si>
     <t>#remark</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -252,46 +251,6 @@
   </si>
   <si>
     <t>3|4;5|6;10|12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TypeName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FieldName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FieldType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Key</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Val</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PairItemIntBool</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PairItemIntInt64</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int64</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -819,10 +778,10 @@
         <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>52</v>
@@ -1020,7 +979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACBBD7ED-714C-4183-A67A-A09FF8ED8A63}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -1157,80 +1116,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F65B931-9CCC-45DB-B97B-78A978A13D77}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
-    <col min="2" max="2" width="18.125" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/TestData/0_no_loc/data/Item.xlsx
+++ b/TestData/0_no_loc/data/Item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fancyHub\ExportExcel\TestData\0_no_loc\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B172E8C-6DAA-4108-BBE8-A7ABE14164F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BE6A35-C9C1-489E-BABC-F0D4DD39A766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemData" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
   <si>
     <t>#remark</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -261,6 +261,18 @@
   <si>
     <t>list_int_int64
 Tuple[PairItemIntInt64]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试List</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试PairList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试Pair</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -712,10 +724,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -731,7 +743,7 @@
     <col min="9" max="9" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -760,7 +772,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
@@ -786,8 +798,9 @@
       <c r="I2" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -806,8 +819,17 @@
       <c r="F3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -833,7 +855,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -857,7 +879,7 @@
       <formula>公式单元格=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576 G2:I2">
+  <conditionalFormatting sqref="F1:F1048576 G2:J2">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="紫色">
       <formula>NOT(ISERROR(SEARCH("紫色",F1)))</formula>
     </cfRule>
@@ -979,7 +1001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACBBD7ED-714C-4183-A67A-A09FF8ED8A63}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>

--- a/TestData/0_no_loc/data/Item.xlsx
+++ b/TestData/0_no_loc/data/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fancyHub\ExportExcel\TestData\0_no_loc\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BE6A35-C9C1-489E-BABC-F0D4DD39A766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACE400B-7379-4351-AB81-D48C7A05B235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemData" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
   <si>
     <t>#remark</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -254,25 +254,54 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>测试List</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试PairList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试Pair</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>int_bool
-Tuple[PairItemIntBool]</t>
+TupleAlias[PairItemIntBool]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>list_int_int64
-Tuple[PairItemIntInt64]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试List</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试PairList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试Pair</t>
+TupleAlias[PairItemIntInt64]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PairField2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int_bool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PairFieldList2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list_int_int64</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PairField3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int_int
+TupleAlias[PairItemIntBool]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -724,10 +753,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -738,12 +767,12 @@
     <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.75" customWidth="1"/>
     <col min="6" max="6" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.375" customWidth="1"/>
-    <col min="8" max="8" width="23.625" customWidth="1"/>
-    <col min="9" max="9" width="12.5" customWidth="1"/>
+    <col min="7" max="9" width="32.375" customWidth="1"/>
+    <col min="10" max="11" width="26.625" customWidth="1"/>
+    <col min="12" max="12" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -766,13 +795,22 @@
         <v>49</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
@@ -790,17 +828,26 @@
         <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -820,16 +867,25 @@
         <v>8</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -848,14 +904,23 @@
       <c r="G4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
         <v>55</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -874,12 +939,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A1:XFD1 A3:F3 H3:XFD3 G4">
+  <conditionalFormatting sqref="A3:F3 J3:XFD3 G4:I4 A1:XFD1">
     <cfRule type="expression" dxfId="3" priority="15">
       <formula>公式单元格=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576 G2:J2">
+  <conditionalFormatting sqref="F1:F1048576 G2:M2">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="紫色">
       <formula>NOT(ISERROR(SEARCH("紫色",F1)))</formula>
     </cfRule>
@@ -924,7 +989,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -949,44 +1014,44 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1002,7 +1067,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/TestData/0_no_loc/data/Item.xlsx
+++ b/TestData/0_no_loc/data/Item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fancyHub\ExportExcel\TestData\0_no_loc\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACE400B-7379-4351-AB81-D48C7A05B235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC57B1B-A009-4B23-9862-ADEC68FCD81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
   <si>
     <t>#remark</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -302,6 +302,26 @@
   </si>
   <si>
     <t>1|3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EItemFlag</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可堆叠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanDelete</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可删除</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -352,7 +372,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -368,6 +388,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,7 +419,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -405,6 +437,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -756,7 +800,10 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -772,45 +819,45 @@
     <col min="12" max="12" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
@@ -847,41 +894,41 @@
       </c>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:13" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -989,7 +1036,8 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1064,10 +1112,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACBBD7ED-714C-4183-A67A-A09FF8ED8A63}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1199,6 +1248,51 @@
       </c>
       <c r="E8" s="5"/>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="8">
+        <v>2</v>
+      </c>
+      <c r="E11" s="8"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
